--- a/Documentation/Planning Temporaire.xlsx
+++ b/Documentation/Planning Temporaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pingo\Desktop\Gimbal-Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AXEL\Documents\Arduino\Gimbal\Gimbal-Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A5E0048-2E2B-4D25-A4A2-AC102C97F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E9372-88D7-4D76-87A1-92FDFF572354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D957B507-50C1-403E-B895-05DDB8A9ECD4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D957B507-50C1-403E-B895-05DDB8A9ECD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Séance</t>
   </si>
@@ -117,6 +117,48 @@
   </si>
   <si>
     <t>Timothée (Partie Arduino et Electronique)</t>
+  </si>
+  <si>
+    <t>Séances</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmation </t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>1er proto 3D</t>
+  </si>
+  <si>
+    <t>2eme proto 3D</t>
+  </si>
+  <si>
+    <t>Conception PCB</t>
+  </si>
+  <si>
+    <t>Montage/Impression 3D</t>
+  </si>
+  <si>
+    <t>Montage PCB</t>
+  </si>
+  <si>
+    <t>TIMOTHEE</t>
+  </si>
+  <si>
+    <t>AXEL/TIMOTHEE</t>
+  </si>
+  <si>
+    <t>Electronique</t>
+  </si>
+  <si>
+    <t>Programation</t>
   </si>
 </sst>
 </file>
@@ -138,15 +180,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,15 +214,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,18 +573,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035B79A9-D85F-45B6-AC5A-25E89D375054}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +598,35 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,8 +636,19 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,8 +658,19 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,8 +680,18 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -542,8 +701,19 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,8 +723,19 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -564,8 +745,19 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,8 +767,17 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,9 +787,288 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:G2 I2">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0B00091-B30E-42BB-B180-664BD7B686F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:L10">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB836F08-2074-4EFC-BE56-206EB3530A35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:F8 D3:F3 D1:L1 D2:G2 I2:L2 D4:D7">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7CF1940E-B06C-4602-A93D-3B5338A7A53C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:F16 D11:L11 D12 J12:L12 D14:D15">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7A934A1-DF90-4333-B1D9-097B90C72C70}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0B00091-B30E-42BB-B180-664BD7B686F3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:G2 I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB836F08-2074-4EFC-BE56-206EB3530A35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D10:L10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7CF1940E-B06C-4602-A93D-3B5338A7A53C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D8:F8 D3:F3 D1:L1 D2:G2 I2:L2 D4:D7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7A934A1-DF90-4333-B1D9-097B90C72C70}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:F16 D11:L11 D12 J12:L12 D14:D15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>